--- a/downloaded_files/EECS102_Lecture-35959.xlsx
+++ b/downloaded_files/EECS102_Lecture-35959.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -235,15 +235,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Amr Abdel Moneim Abdel Latif</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240364</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمود احمد محمد كمال الدين منصور  بلاسى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahmoud Ahmed Mohammed Kamal Eldin</x:t>
   </x:si>
   <x:si>
     <x:t>1240149</x:t>
@@ -404,7 +395,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -704,7 +695,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1145,7 +1136,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.6358980671</x:v>
+        <x:v>45927.4153332176</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1529,7 +1520,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6673467245</x:v>
+        <x:v>45907.6669941782</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1561,7 +1552,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6669941782</x:v>
+        <x:v>45916.3945853356</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1593,7 +1584,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45916.3945853356</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1625,7 +1616,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45916.3985483449</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1657,7 +1648,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45916.3985483449</x:v>
+        <x:v>45907.6665474537</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1674,38 +1665,6 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="E30" s="3">
-        <x:v>45907.6665474537</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS102_Lecture-35959.xlsx
+++ b/downloaded_files/EECS102_Lecture-35959.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -100,6 +100,15 @@
   </x:si>
   <x:si>
     <x:t>Ziad Saad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250252</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سلمى احمد مصطفى احمد مصطفى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salma Ahmed Mustafa Ahmed Mustafa</x:t>
   </x:si>
   <x:si>
     <x:t>1240069</x:t>
@@ -395,7 +404,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -695,7 +704,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1040,7 +1049,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45914.5370814815</x:v>
+        <x:v>45928.4713758449</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1072,7 +1081,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45914.6588234954</x:v>
+        <x:v>45914.5370814815</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1104,7 +1113,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45914.5866372685</x:v>
+        <x:v>45914.6588234954</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1136,7 +1145,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.4153332176</x:v>
+        <x:v>45914.5866372685</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1168,7 +1177,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.6374003819</x:v>
+        <x:v>45927.4153332176</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1200,7 +1209,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45921.6074469097</x:v>
+        <x:v>45914.6374003819</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1232,7 +1241,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45924.0106898495</x:v>
+        <x:v>45921.6074469097</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1264,7 +1273,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45921.614566169</x:v>
+        <x:v>45924.0106898495</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1296,7 +1305,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45921.6102549769</x:v>
+        <x:v>45921.614566169</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1328,7 +1337,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.5861502662</x:v>
+        <x:v>45921.6102549769</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1360,7 +1369,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6662529745</x:v>
+        <x:v>45914.5861502662</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1392,7 +1401,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.6332996875</x:v>
+        <x:v>45907.6662529745</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1424,7 +1433,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6670297106</x:v>
+        <x:v>45914.6332996875</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1456,7 +1465,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45923.5143698264</x:v>
+        <x:v>45907.6670297106</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1488,7 +1497,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45919.7232276273</x:v>
+        <x:v>45923.5143698264</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1520,7 +1529,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6669941782</x:v>
+        <x:v>45919.7232276273</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1552,7 +1561,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45916.3945853356</x:v>
+        <x:v>45907.6669941782</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1584,7 +1593,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45916.3945853356</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1616,7 +1625,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45916.3985483449</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1648,7 +1657,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6665474537</x:v>
+        <x:v>45916.3985483449</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1665,6 +1674,38 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45907.6665474537</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS102_Lecture-35959.xlsx
+++ b/downloaded_files/EECS102_Lecture-35959.xlsx
@@ -1712,11 +1712,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Circuits-1 (EECS102) Location : ----- Time : Monday(8:11)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Circuits-1 (EECS102) Location : [20509]20509-45-الجيزة الرئيسي Time : Monday(8:11)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Circuits-1 (EECS102) Location : ----- Time : Monday(8:11)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Circuits-1 (EECS102) Location : [20509]20509-45-الجيزة الرئيسي Time : Monday(8:11)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Circuits-1 (EECS102) Location : ----- Time : Monday(8:11)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Circuits-1 (EECS102) Location : [20509]20509-45-الجيزة الرئيسي Time : Monday(8:11)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">

--- a/downloaded_files/EECS102_Lecture-35959.xlsx
+++ b/downloaded_files/EECS102_Lecture-35959.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -271,15 +271,6 @@
   </x:si>
   <x:si>
     <x:t>yahia waleed wafeeq ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240393</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف احمد سعيد عبدالفتاح احمد الليثي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Ahmed Saeed Abdelfatah</x:t>
   </x:si>
   <x:si>
     <x:t>1240175</x:t>
@@ -404,7 +395,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -704,7 +695,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1657,7 +1648,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45916.3985483449</x:v>
+        <x:v>45907.6665474537</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1674,38 +1665,6 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="E30" s="3">
-        <x:v>45907.6665474537</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS102_Lecture-35959.xlsx
+++ b/downloaded_files/EECS102_Lecture-35959.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -190,6 +190,15 @@
   </x:si>
   <x:si>
     <x:t>Ali Mahmoud Najah Makkawi Khalaf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240337</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر أحمد عبد الفتاح ابراهيم القرشي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Ahmed Abd ELFattah Ibrahim</x:t>
   </x:si>
   <x:si>
     <x:t>1240097</x:t>
@@ -395,7 +404,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -695,7 +704,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1360,7 +1369,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.5861502662</x:v>
+        <x:v>45907.6648382292</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1392,7 +1401,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6662529745</x:v>
+        <x:v>45914.5861502662</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1424,7 +1433,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.6332996875</x:v>
+        <x:v>45907.6662529745</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1456,7 +1465,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6670297106</x:v>
+        <x:v>45914.6332996875</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1488,7 +1497,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45923.5143698264</x:v>
+        <x:v>45907.6670297106</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1520,7 +1529,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45919.7232276273</x:v>
+        <x:v>45923.5143698264</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1552,7 +1561,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6669941782</x:v>
+        <x:v>45919.7232276273</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1584,7 +1593,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45916.3945853356</x:v>
+        <x:v>45907.6669941782</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1616,7 +1625,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45916.3945853356</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1648,7 +1657,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6665474537</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1665,6 +1674,38 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45907.6665474537</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS102_Lecture-35959.xlsx
+++ b/downloaded_files/EECS102_Lecture-35959.xlsx
@@ -162,7 +162,7 @@
     <x:t>عبدالرحمن سيد عبدالرحيم احمد عطية</x:t>
   </x:si>
   <x:si>
-    <x:t>Abdul Rahman Sayed Abdul Rahim Ahmed Attia</x:t>
+    <x:t>Abdelrahman Sayed Abdelraheem Ahmed Attia</x:t>
   </x:si>
   <x:si>
     <x:t>1240237</x:t>

--- a/downloaded_files/EECS102_Lecture-35959.xlsx
+++ b/downloaded_files/EECS102_Lecture-35959.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -100,15 +100,6 @@
   </x:si>
   <x:si>
     <x:t>Ziad Saad</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250252</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سلمى احمد مصطفى احمد مصطفى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Salma Ahmed Mustafa Ahmed Mustafa</x:t>
   </x:si>
   <x:si>
     <x:t>1240069</x:t>
@@ -404,7 +395,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -704,7 +695,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1049,7 +1040,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45928.4713758449</x:v>
+        <x:v>45914.5370814815</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1081,7 +1072,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45914.5370814815</x:v>
+        <x:v>45914.6588234954</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1113,7 +1104,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45914.6588234954</x:v>
+        <x:v>45914.5866372685</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1145,7 +1136,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.5866372685</x:v>
+        <x:v>45927.4153332176</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1177,7 +1168,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45927.4153332176</x:v>
+        <x:v>45914.6374003819</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1209,7 +1200,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.6374003819</x:v>
+        <x:v>45921.6074469097</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1241,7 +1232,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45921.6074469097</x:v>
+        <x:v>45924.0106898495</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1273,7 +1264,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45924.0106898495</x:v>
+        <x:v>45921.614566169</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1305,7 +1296,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45921.614566169</x:v>
+        <x:v>45921.6102549769</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1337,7 +1328,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45921.6102549769</x:v>
+        <x:v>45907.6648382292</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1369,7 +1360,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6648382292</x:v>
+        <x:v>45914.5861502662</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1401,7 +1392,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.5861502662</x:v>
+        <x:v>45907.6662529745</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1433,7 +1424,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6662529745</x:v>
+        <x:v>45914.6332996875</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1465,7 +1456,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.6332996875</x:v>
+        <x:v>45907.6670297106</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1497,7 +1488,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6670297106</x:v>
+        <x:v>45923.5143698264</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1529,7 +1520,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45923.5143698264</x:v>
+        <x:v>45919.7232276273</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1561,7 +1552,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45919.7232276273</x:v>
+        <x:v>45907.6669941782</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1593,7 +1584,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6669941782</x:v>
+        <x:v>45916.3945853356</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1625,7 +1616,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45916.3945853356</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1657,7 +1648,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45907.6665474537</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1674,38 +1665,6 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="E30" s="3">
-        <x:v>45907.6665474537</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
